--- a/Administrativo/Cronograma.xlsx
+++ b/Administrativo/Cronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oserna\Documents\GitHub\Swell_2_Optimizacion_estrategias\Administrativo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46FC9CA1-76D2-44AF-9751-A6FAEA064C72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A80273-B54D-4FD6-9F5D-F4AAA09EB219}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FA9B4E7A-77FE-434E-A4DF-59349C21AA54}"/>
   </bookViews>
@@ -38,18 +38,9 @@
     <t>Construcción de un portafolio que sigue el algoritmo de órdenes de acuerdo a la estrategia definida por Swell, para calcular estadísticas históricas de retorno/riesgo.</t>
   </si>
   <si>
-    <t>“Backtest de estrategias actuales”</t>
-  </si>
-  <si>
-    <t>“Optimización de estrategias actuales”.</t>
-  </si>
-  <si>
     <t>Desarrollo de un modelo de optimización de los parámetros para mejorar el desempeño de la estrategia.</t>
   </si>
   <si>
-    <t>“Desarrollo de variantes a estrategias actuales mediante el análisis de performance en varios activos, utilizando herramientas sofisticadas de análisis estadístico”.</t>
-  </si>
-  <si>
     <t>Análisis del modelo utilizado para crear la señal de estrategias actuales.</t>
   </si>
   <si>
@@ -96,6 +87,15 @@
   </si>
   <si>
     <t>Análisis de los parámetros (SL, TP, apalancamiento) utilizado en las estrategias actuales.</t>
+  </si>
+  <si>
+    <t>Fase 1: “Backtest de estrategias actuales”</t>
+  </si>
+  <si>
+    <t>Fase 2: “Optimización de estrategias actuales”.</t>
+  </si>
+  <si>
+    <t>Fase 3: “Desarrollo de variantes a estrategias actuales mediante el análisis de performance en varios activos, utilizando herramientas sofisticadas de análisis estadístico”.</t>
   </si>
 </sst>
 </file>
@@ -504,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50AEB34D-1F42-493A-A4D6-8E325331438C}">
   <dimension ref="B4:N13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -518,45 +518,45 @@
     <row r="4" spans="2:14" ht="15.75">
       <c r="B4" s="7"/>
       <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="2:14" ht="15.75">
       <c r="B5" s="3" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -571,7 +571,7 @@
     </row>
     <row r="7" spans="2:14" ht="15.75">
       <c r="B7" s="3" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -580,7 +580,7 @@
     </row>
     <row r="8" spans="2:14" ht="30">
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="4"/>
@@ -588,7 +588,7 @@
     </row>
     <row r="9" spans="2:14" ht="30">
       <c r="B9" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -596,7 +596,7 @@
     </row>
     <row r="10" spans="2:14" ht="63">
       <c r="B10" s="3" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
@@ -606,13 +606,13 @@
     </row>
     <row r="11" spans="2:14" ht="30">
       <c r="B11" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="2:14" ht="30">
       <c r="B12" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
@@ -621,7 +621,7 @@
     </row>
     <row r="13" spans="2:14">
       <c r="B13" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N13" s="6"/>
     </row>

--- a/Administrativo/Cronograma.xlsx
+++ b/Administrativo/Cronograma.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oserna\Documents\GitHub\Swell_2_Optimizacion_estrategias\Administrativo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c809557\Documents\GitHub\Swell_2_Optimizacion_estrategias\Administrativo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A80273-B54D-4FD6-9F5D-F4AAA09EB219}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FA9B4E7A-77FE-434E-A4DF-59349C21AA54}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19320" windowHeight="6870"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Construcción de un portafolio que sigue el algoritmo de órdenes de acuerdo a la estrategia definida por Swell, para calcular estadísticas históricas de retorno/riesgo.</t>
   </si>
@@ -50,12 +49,6 @@
     <t>Presentación de resultados</t>
   </si>
   <si>
-    <t>S1</t>
-  </si>
-  <si>
-    <t>S2</t>
-  </si>
-  <si>
     <t>S3</t>
   </si>
   <si>
@@ -96,12 +89,15 @@
   </si>
   <si>
     <t>Fase 3: “Desarrollo de variantes a estrategias actuales mediante el análisis de performance en varios activos, utilizando herramientas sofisticadas de análisis estadístico”.</t>
+  </si>
+  <si>
+    <t>Finalizado Apr 18</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -173,9 +169,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -187,6 +182,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -501,131 +502,135 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50AEB34D-1F42-493A-A4D6-8E325331438C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:N13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="59.5703125" customWidth="1"/>
-    <col min="3" max="11" width="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.54296875" customWidth="1"/>
+    <col min="3" max="4" width="10.08984375" customWidth="1"/>
+    <col min="5" max="8" width="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.90625" customWidth="1"/>
+    <col min="10" max="11" width="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="6.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:14" ht="15.75">
-      <c r="B4" s="7"/>
-      <c r="C4" s="1" t="s">
+    <row r="4" spans="2:14" ht="15.5">
+      <c r="B4" s="6"/>
+      <c r="C4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="I4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="J4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="L4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="M4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="N4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N4" s="1" t="s">
+    </row>
+    <row r="5" spans="2:14" ht="15.5">
+      <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="2:14" ht="15.75">
-      <c r="B5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="2:14" ht="45">
-      <c r="B6" s="2" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="2:14" ht="46.5">
+      <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="2:14" ht="15.75">
-      <c r="B7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="2:14" ht="30">
-      <c r="B8" s="2" t="s">
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="2:14" ht="15.5">
+      <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="2:14" ht="31">
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="2:14" ht="30">
-      <c r="B9" s="2" t="s">
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="2:14" ht="31">
+      <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="2:14" ht="63">
-      <c r="B10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-    </row>
-    <row r="11" spans="2:14" ht="30">
-      <c r="B11" s="2" t="s">
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="2:14" ht="62">
+      <c r="B10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="2:14" ht="31">
+      <c r="B11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="2:14" ht="30">
-      <c r="B12" s="2" t="s">
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="2:14" ht="31">
+      <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-    </row>
-    <row r="13" spans="2:14">
-      <c r="B13" s="2" t="s">
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="2:14" ht="15.5">
+      <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N13" s="6"/>
+      <c r="N13" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C4:D4"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
